--- a/oncopro_questions.xlsx
+++ b/oncopro_questions.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoaib/Desktop/ai/oncology-kg-ai/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C4DDB8-36A7-0E4F-938D-534EB7EA4C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Old" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Old" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="283">
   <si>
     <t>question_en</t>
   </si>
@@ -261,39 +270,650 @@
   </si>
   <si>
     <t>Was bedeutet „schlecht differenziert“ in der Tumorgrading?</t>
+  </si>
+  <si>
+    <t>What clinical and imaging factors define T-stage in oropharyngeal cancer?</t>
+  </si>
+  <si>
+    <t>Welche klinischen und bildgebenden Faktoren definieren das T‚ÄëStadium beim Oropharynxkarzinom?</t>
+  </si>
+  <si>
+    <t>How does extranodal extension affect N-staging and adjuvant therapy in head and neck cancer?</t>
+  </si>
+  <si>
+    <t>Wie beeinflusst eine extranodale Ausbreitung das N‚ÄëStadium und die adjuvante Therapie bei Kopf‚ÄëHals‚ÄëTumoren?</t>
+  </si>
+  <si>
+    <t>What is the role of perineural invasion and lymphovascular invasion in risk stratification?</t>
+  </si>
+  <si>
+    <t>Welche Rolle spielen perineurale und lymphovaskul√§re Invasion in der Risikostratifizierung?</t>
+  </si>
+  <si>
+    <t>How is p16/HPV status incorporated into staging and treatment decisions for oropharyngeal SCC?</t>
+  </si>
+  <si>
+    <t>Wie flie√üen p16/HPV‚ÄëStatus in Stadieneinteilung und Therapieentscheidungen beim oropharyngealen Plattenepithelkarzinom ein?</t>
+  </si>
+  <si>
+    <t>When is PET‚ÄëCT recommended for initial staging in head and neck cancers?</t>
+  </si>
+  <si>
+    <t>Wann wird PET‚ÄëCT f√ºr das Prim√§rstaging bei Kopf‚ÄëHals‚ÄëTumoren empfohlen?</t>
+  </si>
+  <si>
+    <t>What are standard indications for elective neck dissection in clinically N0 necks?</t>
+  </si>
+  <si>
+    <t>Was sind Standardindikationen f√ºr eine elektive Neck Dissection bei klinisch N0‚ÄëH√§lsen?</t>
+  </si>
+  <si>
+    <t>When should transoral robotic surgery (TORS) be preferred over open approaches?</t>
+  </si>
+  <si>
+    <t>Wann sollte eine transorale robotische Chirurgie (TORS) gegen√ºber offenen Verfahren bevorzugt werden?</t>
+  </si>
+  <si>
+    <t>How do positive margins guide decisions for postoperative chemoradiation?</t>
+  </si>
+  <si>
+    <t>Wie steuern positive Resektionsr√§nder die Entscheidung f√ºr eine postoperative Radiochemotherapie?</t>
+  </si>
+  <si>
+    <t>What are recommended cisplatin dosing schedules for concurrent chemoradiation (weekly vs q3w)?</t>
+  </si>
+  <si>
+    <t>Welche Cisplatin‚ÄëDosierungsschemata werden f√ºr die simultane Radiochemotherapie empfohlen (w√∂chentlich vs. alle 3 Wochen)?</t>
+  </si>
+  <si>
+    <t>In which scenarios is cetuximab an acceptable alternative to cisplatin?</t>
+  </si>
+  <si>
+    <t>In welchen Situationen ist Cetuximab eine akzeptable Alternative zu Cisplatin?</t>
+  </si>
+  <si>
+    <t>What are organ‚Äëpreservation strategies for T2‚ÄìT3 laryngeal carcinoma?</t>
+  </si>
+  <si>
+    <t>Welche organerhaltenden Strategien gibt es beim Larynxkarzinom im Stadium T2‚ÄìT3?</t>
+  </si>
+  <si>
+    <t>When is total laryngectomy preferred over conservative modalities?</t>
+  </si>
+  <si>
+    <t>Wann ist eine totale Laryngektomie konservativen Verfahren vorzuziehen?</t>
+  </si>
+  <si>
+    <t>What is the evidence for induction TPF chemotherapy in hypopharyngeal cancer?</t>
+  </si>
+  <si>
+    <t>Welche Evidenz gibt es f√ºr eine TPF‚ÄëInduktionstherapie beim Hypopharynxkarzinom?</t>
+  </si>
+  <si>
+    <t>What toxicity management is recommended for severe mucositis during chemoradiation?</t>
+  </si>
+  <si>
+    <t>Welche Ma√ünahmen werden zur Behandlung einer schweren Mukositis unter Radiochemotherapie empfohlen?</t>
+  </si>
+  <si>
+    <t>How should osteoradionecrosis risk be reduced in head and neck radiation plans?</t>
+  </si>
+  <si>
+    <t>Wie l√§sst sich das Risiko einer Osteoradionekrose in Strahlentherapiepl√§nen f√ºr Kopf‚ÄëHals reduzieren?</t>
+  </si>
+  <si>
+    <t>What swallowing and voice rehabilitation strategies are advised post‚Äëtreatment?</t>
+  </si>
+  <si>
+    <t>Welche Strategien zur Schluck‚Äë und Stimmrehabilitation werden nach der Behandlung empfohlen?</t>
+  </si>
+  <si>
+    <t>When is re‚Äëirradiation considered for recurrent head and neck cancer?</t>
+  </si>
+  <si>
+    <t>Wann wird eine Re‚ÄëBestrahlung bei rezidivierenden Kopf‚ÄëHals‚ÄëTumoren erwogen?</t>
+  </si>
+  <si>
+    <t>What is the recommended surveillance schedule after curative therapy?</t>
+  </si>
+  <si>
+    <t>Wie sieht der empfohlene Nachsorgeplan nach kurativer Therapie aus?</t>
+  </si>
+  <si>
+    <t>How are synchronous primaries approached in head and neck oncology?</t>
+  </si>
+  <si>
+    <t>Wie geht man in der Kopf‚ÄëHals‚ÄëOnkologie mit synchronen Prim√§rtumoren um?</t>
+  </si>
+  <si>
+    <t>What are common late toxicities and their monitoring in head and neck cancer survivors?</t>
+  </si>
+  <si>
+    <t>Welche Sp√§ttoxizit√§ten treten h√§ufig auf und wie werden sie bei √úberlebenden von Kopf‚ÄëHals‚ÄëTumoren √ºberwacht?</t>
+  </si>
+  <si>
+    <t>What are the current FIGO staging criteria for cervical cancer and their clinical implications?</t>
+  </si>
+  <si>
+    <t>Was sind die aktuellen FIGO‚ÄëStadienkriterien f√ºr das Zervixkarzinom und deren klinische Bedeutung?</t>
+  </si>
+  <si>
+    <t>Which imaging modalities are preferred for local extent vs nodal status in cervical cancer?</t>
+  </si>
+  <si>
+    <t>Welche Bildgebung wird beim Zervixkarzinom bevorzugt, um lokale Ausdehnung bzw. Lymphknotenstatus zu beurteilen?</t>
+  </si>
+  <si>
+    <t>When is sentinel lymph node mapping recommended in early‚Äëstage disease?</t>
+  </si>
+  <si>
+    <t>Wann wird ein Sentinel‚ÄëLymphknoten‚ÄëMapping im Fr√ºhstadium empfohlen?</t>
+  </si>
+  <si>
+    <t>Who are candidates for fertility‚Äësparing radical trachelectomy?</t>
+  </si>
+  <si>
+    <t>F√ºr wen kommt eine fertilit√§tserhaltende radikale Trachelektomie infrage?</t>
+  </si>
+  <si>
+    <t>How did the LACC trial influence the choice of minimally invasive vs open radical hysterectomy?</t>
+  </si>
+  <si>
+    <t>Wie hat die LACC‚ÄëStudie die Wahl zwischen minimalinvasiver und offener radikaler Hysterektomie beeinflusst?</t>
+  </si>
+  <si>
+    <t>When is definitive chemoradiation preferred over surgery in cervical cancer?</t>
+  </si>
+  <si>
+    <t>Wann wird eine definitive Radiochemotherapie gegen√ºber einer Operation bevorzugt?</t>
+  </si>
+  <si>
+    <t>What are standard EBRT and brachytherapy dose prescriptions for locally advanced disease?</t>
+  </si>
+  <si>
+    <t>Welche Standarddosierungen f√ºr EBRT und Brachytherapie gelten bei lokal fortgeschrittener Erkrankung?</t>
+  </si>
+  <si>
+    <t>What is the role of concurrent cisplatin during pelvic radiation?</t>
+  </si>
+  <si>
+    <t>Welche Rolle spielt gleichzeitiges Cisplatin w√§hrend der Beckenbestrahlung?</t>
+  </si>
+  <si>
+    <t>When are adjuvant radiation or chemoradiation indicated after surgery (Sedlis, Peters criteria)?</t>
+  </si>
+  <si>
+    <t>Wann sind adjuvante Bestrahlung oder Radiochemotherapie nach Operation indiziert (Sedlis‚Äë, Peters‚ÄëKriterien)?</t>
+  </si>
+  <si>
+    <t>Which systemic therapies are recommended for recurrent/metastatic cervical cancer?</t>
+  </si>
+  <si>
+    <t>Welche systemischen Therapien werden beim rezidivierten/metastasierten Zervixkarzinom empfohlen?</t>
+  </si>
+  <si>
+    <t>What biomarkers (PD‚ÄëL1, MSI‚ÄëH, TMB) inform immunotherapy selection in cervical cancer?</t>
+  </si>
+  <si>
+    <t>Welche Biomarker (PD‚ÄëL1, MSI‚ÄëH, TMB) sind f√ºr die Auswahl der Immuntherapie beim Zervixkarzinom relevant?</t>
+  </si>
+  <si>
+    <t>What are recommended follow‚Äëup intervals after definitive treatment for cervical cancer?</t>
+  </si>
+  <si>
+    <t>Welche Nachsorgeintervalle werden nach abgeschlossener Behandlung des Zervixkarzinoms empfohlen?</t>
+  </si>
+  <si>
+    <t>How should treatment be adapted for cervical cancer diagnosed during pregnancy?</t>
+  </si>
+  <si>
+    <t>Wie sollte die Behandlung bei in der Schwangerschaft diagnostiziertem Zervixkarzinom angepasst werden?</t>
+  </si>
+  <si>
+    <t>What strategies are advised for managing radiation‚Äëinduced cystitis and proctitis?</t>
+  </si>
+  <si>
+    <t>Welche Strategien werden zur Behandlung einer strahlenbedingten Zystitis und Proktitis empfohlen?</t>
+  </si>
+  <si>
+    <t>How are oligometastatic cervical cancer cases approached (SBRT vs systemic)?</t>
+  </si>
+  <si>
+    <t>Wie wird bei oligometastasiertem Zervixkarzinom vorgegangen (SBRT vs. systemisch)?</t>
+  </si>
+  <si>
+    <t>What is the diagnostic algorithm for cervical lymph node metastasis with unknown primary?</t>
+  </si>
+  <si>
+    <t>Wie lautet der diagnostische Algorithmus bei zervikalen Lymphknotenmetastasen unklaren Prim√§rtumors?</t>
+  </si>
+  <si>
+    <t>Which endoscopic evaluations are recommended for suspected occult oropharyngeal primaries?</t>
+  </si>
+  <si>
+    <t>Welche endoskopischen Untersuchungen werden bei Verdacht auf okkulte Oropharynx‚ÄëPrim√§rtumoren empfohlen?</t>
+  </si>
+  <si>
+    <t>When is bilateral tonsillectomy indicated in CUP workup?</t>
+  </si>
+  <si>
+    <t>Wann ist eine bilaterale Tonsillektomie in der CUP‚ÄëAbkl√§rung indiziert?</t>
+  </si>
+  <si>
+    <t>How useful is p16 IHC in localizing an occult oropharyngeal primary?</t>
+  </si>
+  <si>
+    <t>Wie hilfreich ist p16‚ÄëIHC zur Lokalisation eines okkulten Oropharynx‚ÄëPrim√§rtumors?</t>
+  </si>
+  <si>
+    <t>What imaging sequence (CT/MRI/PET‚ÄëCT) is preferred in CUP with cervical nodes?</t>
+  </si>
+  <si>
+    <t>Welche Bildgebungssequenz (CT/MRT/PET‚ÄëCT) wird bei CUP mit zervikalen Lymphknoten bevorzugt?</t>
+  </si>
+  <si>
+    <t>When is neck dissection favored over primary chemoradiation in CUP?</t>
+  </si>
+  <si>
+    <t>Wann wird bei CUP eine Neck Dissection gegen√ºber einer prim√§ren Radiochemotherapie bevorzugt?</t>
+  </si>
+  <si>
+    <t>What is the recommended radiation target volume strategy when the primary is unknown?</t>
+  </si>
+  <si>
+    <t>Welche Strategie f√ºr Zielvolumina wird empfohlen, wenn der Prim√§rtumor unbekannt ist?</t>
+  </si>
+  <si>
+    <t>How are HPV‚Äëpositive CUP cases managed differently from HPV‚Äënegative cases?</t>
+  </si>
+  <si>
+    <t>Wie werden HPV‚Äëpositive CUP‚ÄëF√§lle im Vergleich zu HPV‚Äënegativen F√§llen unterschiedlich behandelt?</t>
+  </si>
+  <si>
+    <t>What are expected control rates for CUP after definitive chemoradiation?</t>
+  </si>
+  <si>
+    <t>Welche lokalen Kontrollraten sind bei CUP nach definitiver Radiochemotherapie zu erwarten?</t>
+  </si>
+  <si>
+    <t>What pathology workup is advised for metastatic SCC in cervical nodes?</t>
+  </si>
+  <si>
+    <t>Welche pathologische Abkl√§rung wird bei metastasiertem Plattenepithelkarzinom in zervikalen Lymphknoten empfohlen?</t>
+  </si>
+  <si>
+    <t>How should patient‚Äëreported outcomes be monitored during and after CUP treatment?</t>
+  </si>
+  <si>
+    <t>Wie sollten patientenberichtete Ergebnisse w√§hrend und nach der CUP‚ÄëBehandlung √ºberwacht werden?</t>
+  </si>
+  <si>
+    <t>What analgesia and nutritional support strategies are recommended in CUP management?</t>
+  </si>
+  <si>
+    <t>Welche Analgesie‚Äë und Ern√§hrungsstrategien werden im CUP‚ÄëManagement empfohlen?</t>
+  </si>
+  <si>
+    <t>Which patterns of failure are typical after CUP treatment?</t>
+  </si>
+  <si>
+    <t>Welche Versagensmuster treten typischerweise nach CUP‚ÄëBehandlung auf?</t>
+  </si>
+  <si>
+    <t>When is de‚Äëescalation considered in HPV‚Äëpositive disease within CUP protocols?</t>
+  </si>
+  <si>
+    <t>Wann wird eine Deeskalation bei HPV‚Äëpositiver Erkrankung im Rahmen von CUP‚ÄëProtokollen erwogen?</t>
+  </si>
+  <si>
+    <t>What is the role of ctDNA or liquid biopsy in identifying occult primaries?</t>
+  </si>
+  <si>
+    <t>Welche Rolle spielen ctDNA oder Liquid Biopsy beim Auffinden okkulter Prim√§rtumoren?</t>
+  </si>
+  <si>
+    <t>What are the WHO classification criteria for uterine soft tissue sarcomas?</t>
+  </si>
+  <si>
+    <t>Was sind die WHO‚ÄëKlassifikationskriterien f√ºr uterine Weichteilsarkome?</t>
+  </si>
+  <si>
+    <t>How are leiomyosarcoma, endometrial stromal sarcoma, and adenosarcoma differentiated histologically?</t>
+  </si>
+  <si>
+    <t>Wie werden Leiomyosarkom, endometriales Stromasarkom und Adenosarkom histologisch differenziert?</t>
+  </si>
+  <si>
+    <t>What is the role of MRI vs CT in staging uterine sarcomas?</t>
+  </si>
+  <si>
+    <t>Welche Rolle spielen MRT vs. CT im Staging uteriner Sarkome?</t>
+  </si>
+  <si>
+    <t>When is morcellation contraindicated due to risk of tumor spread?</t>
+  </si>
+  <si>
+    <t>Wann ist eine Morcellation wegen Tumorstreurisikos kontraindiziert?</t>
+  </si>
+  <si>
+    <t>What surgical margins are considered adequate in uterine sarcoma resection?</t>
+  </si>
+  <si>
+    <t>Welche Resektionsr√§nder gelten bei der Operation uteriner Sarkome als ad√§quat?</t>
+  </si>
+  <si>
+    <t>When is adjuvant radiation considered in uterine sarcomas?</t>
+  </si>
+  <si>
+    <t>Wann wird eine adjuvante Bestrahlung bei uterinen Sarkomen erwogen?</t>
+  </si>
+  <si>
+    <t>Which systemic regimens (doxorubicin, ifosfamide, gemcitabine/docetaxel) are standard options?</t>
+  </si>
+  <si>
+    <t>Welche systemischen Schemata (Doxorubicin, Ifosfamid, Gemcitabin/Docetaxel) sind Standardoptionen?</t>
+  </si>
+  <si>
+    <t>How is hormonal therapy used in low‚Äëgrade endometrial stromal sarcoma?</t>
+  </si>
+  <si>
+    <t>Wie wird eine Hormontherapie beim niedriggradigen endometrialen Stromasarkom eingesetzt?</t>
+  </si>
+  <si>
+    <t>What are recurrence patterns and recommended surveillance in uterine sarcomas?</t>
+  </si>
+  <si>
+    <t>Wie sind Rezidivmuster und empfohlene Nachsorge bei uterinen Sarkomen?</t>
+  </si>
+  <si>
+    <t>How should pulmonary metastases from uterine sarcoma be managed?</t>
+  </si>
+  <si>
+    <t>Wie sollten pulmonale Metastasen uteriner Sarkome behandelt werden?</t>
+  </si>
+  <si>
+    <t>What fertility considerations apply to young patients with uterine sarcoma?</t>
+  </si>
+  <si>
+    <t>Welche Fertilit√§tsaspekte sind bei jungen Patientinnen mit uterinem Sarkom zu ber√ºcksichtigen?</t>
+  </si>
+  <si>
+    <t>When is palliative radiotherapy indicated for symptomatic metastases?</t>
+  </si>
+  <si>
+    <t>Wann ist eine palliative Radiotherapie bei symptomatischen Metastasen indiziert?</t>
+  </si>
+  <si>
+    <t>What supportive care is recommended to manage chemotherapy‚Äërelated toxicities?</t>
+  </si>
+  <si>
+    <t>Welche supportive Ma√ünahmen werden zur Behandlung chemotherapiebedingter Toxizit√§ten empfohlen?</t>
+  </si>
+  <si>
+    <t>How does tumor grading and mitotic index influence prognosis?</t>
+  </si>
+  <si>
+    <t>Wie beeinflussen Tumorgrading und mitotischer Index die Prognose?</t>
+  </si>
+  <si>
+    <t>What are criteria for clinical trial referral in uterine sarcomas?</t>
+  </si>
+  <si>
+    <t>Welche Kriterien sprechen f√ºr eine √úberweisung in klinische Studien bei uterinen Sarkomen?</t>
+  </si>
+  <si>
+    <t>What histopathologic markers (chromogranin, synaptophysin) support NET diagnosis in bone?</t>
+  </si>
+  <si>
+    <t>Welche histopathologischen Marker (Chromogranin, Synaptophysin) st√ºtzen die NET‚ÄëDiagnose im Knochen?</t>
+  </si>
+  <si>
+    <t>How is Ki‚Äë67 used to grade bone NETs (G1‚ÄìG3)?</t>
+  </si>
+  <si>
+    <t>Wie wird Ki‚Äë67 zur Graduierung von Knochen‚ÄëNETs (G1‚ÄìG3) verwendet?</t>
+  </si>
+  <si>
+    <t>Which imaging tests differentiate primary bone NET from metastasis?</t>
+  </si>
+  <si>
+    <t>Welche Bildgebung unterscheidet prim√§re Knochen‚ÄëNETs von Metastasen?</t>
+  </si>
+  <si>
+    <t>When should Ga‚Äë68 DOTATATE PET‚ÄëCT be used in NET evaluation?</t>
+  </si>
+  <si>
+    <t>Wann sollte Ga‚Äë68‚ÄëDOTATATE‚ÄëPET‚ÄëCT in der NET‚ÄëAbkl√§rung eingesetzt werden?</t>
+  </si>
+  <si>
+    <t>What is the role of somatostatin analogs in controlling symptoms and growth?</t>
+  </si>
+  <si>
+    <t>Welche Rolle spielen Somatostatin‚ÄëAnaloga bei Symptomkontrolle und Tumorwachstum?</t>
+  </si>
+  <si>
+    <t>When is peptide receptor radionuclide therapy (PRRT) indicated?</t>
+  </si>
+  <si>
+    <t>Wann ist eine Peptidrezeptor‚ÄëRadionuklidtherapie (PRRT) indiziert?</t>
+  </si>
+  <si>
+    <t>How are bone‚Äëtargeted agents (denosumab, zoledronic acid) used in NET bone disease?</t>
+  </si>
+  <si>
+    <t>Wie werden knochenwirksame Substanzen (Denosumab, Zoledrons√§ure) bei NET‚ÄëKnochenerkrankung eingesetzt?</t>
+  </si>
+  <si>
+    <t>What systemic therapies are options for progressive high‚Äëgrade NETs?</t>
+  </si>
+  <si>
+    <t>Welche systemischen Therapien sind Optionen bei progredienten hochgradigen NETs?</t>
+  </si>
+  <si>
+    <t>How is pain from bone NETs best palliated (RT vs systemic)?</t>
+  </si>
+  <si>
+    <t>Wie wird Schmerz durch Knochen‚ÄëNETs am besten palliativ behandelt (RT vs. systemisch)?</t>
+  </si>
+  <si>
+    <t>What are follow‚Äëup schedules and biomarkers (CgA) for NETs with bone involvement?</t>
+  </si>
+  <si>
+    <t>Wie sehen Nachsorgepl√§ne und Biomarker (CgA) bei NETs mit Knochenbefall aus?</t>
+  </si>
+  <si>
+    <t>When is biopsy mandatory to distinguish NET from other small round blue cell tumors?</t>
+  </si>
+  <si>
+    <t>Wann ist eine Biopsie erforderlich, um NET von anderen klein‚Äërund‚Äëblauen Tumoren zu unterscheiden?</t>
+  </si>
+  <si>
+    <t>What complications (spinal cord compression, fractures) require urgent management?</t>
+  </si>
+  <si>
+    <t>Welche Komplikationen (R√ºckenmarkskompression, Frakturen) erfordern eine dringliche Behandlung?</t>
+  </si>
+  <si>
+    <t>How should anticoagulation be managed in NET patients receiving PRRT?</t>
+  </si>
+  <si>
+    <t>Wie sollte eine Antikoagulation bei NET‚ÄëPatienten unter PRRT gemanagt werden?</t>
+  </si>
+  <si>
+    <t>What is the prognostic impact of functional vs non‚Äëfunctional NETs?</t>
+  </si>
+  <si>
+    <t>Welche prognostische Bedeutung haben funktionelle vs. nicht‚Äëfunktionelle NETs?</t>
+  </si>
+  <si>
+    <t>When should germline testing be considered (MEN syndromes) in NET patients?</t>
+  </si>
+  <si>
+    <t>Wann sollte bei NET‚ÄëPatienten eine Keimbahntestung (MEN‚ÄëSyndrome) erwogen werden?</t>
+  </si>
+  <si>
+    <t>How do NCCN and ESMO recommendations differ for head and neck cancers?</t>
+  </si>
+  <si>
+    <t>Worin unterscheiden sich NCCN‚Äë und ESMO‚ÄëEmpfehlungen f√ºr Kopf‚ÄëHals‚ÄëTumoren?</t>
+  </si>
+  <si>
+    <t>What quality‚Äëof‚Äëlife instruments are validated in head and neck oncology studies?</t>
+  </si>
+  <si>
+    <t>Welche Lebensqualit√§tsinstrumente sind in Studien zur Kopf‚ÄëHals‚ÄëOnkologie validiert?</t>
+  </si>
+  <si>
+    <t>How are response assessments performed (RECIST vs PERCIST) in these cancers?</t>
+  </si>
+  <si>
+    <t>Wie werden Ansprechkriterien (RECIST vs. PERCIST) bei diesen Tumoren angewandt?</t>
+  </si>
+  <si>
+    <t>What dose constraints are recommended for organs at risk in head and neck RT?</t>
+  </si>
+  <si>
+    <t>Welche Dosisgrenzen werden f√ºr Risikoorgane in der Kopf‚ÄëHals‚ÄëRadiotherapie empfohlen?</t>
+  </si>
+  <si>
+    <t>When should adaptive replanning be triggered during radiotherapy?</t>
+  </si>
+  <si>
+    <t>Wann sollte w√§hrend der Radiotherapie eine adaptive Neuplanung erfolgen?</t>
+  </si>
+  <si>
+    <t>What are common drug‚Äëradiation interactions to avoid (e.g., amifostine, bevacizumab timing)?</t>
+  </si>
+  <si>
+    <t>Welche Wechselwirkungen zwischen Arzneien und Bestrahlung sind zu vermeiden (z.‚ÄØB. Amifostin, Timing von Bevacizumab)?</t>
+  </si>
+  <si>
+    <t>How should treatment be tailored for frail or comorbid patients?</t>
+  </si>
+  <si>
+    <t>Wie sollte die Behandlung bei gebrechlichen oder multimorbiden Patienten angepasst werden?</t>
+  </si>
+  <si>
+    <t>What constitutes an optimal multidisciplinary tumor board workflow?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet einen optimalen Ablauf im interdisziplin√§ren Tumorboard?</t>
+  </si>
+  <si>
+    <t>Which endpoints are most informative for clinical trials in these indications?</t>
+  </si>
+  <si>
+    <t>Welche Endpunkte sind f√ºr klinische Studien in diesen Indikationen am aussagekr√§ftigsten?</t>
+  </si>
+  <si>
+    <t>How should incidental findings on staging imaging be handled?</t>
+  </si>
+  <si>
+    <t>Wie sollten Zufallsbefunde in der Staging‚ÄëBildgebung gehandhabt werden?</t>
+  </si>
+  <si>
+    <t>What supportive measures reduce risk of treatment breaks during chemoradiation?</t>
+  </si>
+  <si>
+    <t>Welche supportiven Ma√ünahmen reduzieren das Risiko von Therapieunterbrechungen w√§hrend einer Radiochemotherapie?</t>
+  </si>
+  <si>
+    <t>When should feeding tube placement be considered prophylactically?</t>
+  </si>
+  <si>
+    <t>Wann sollte eine Sondenern√§hrung prophylaktisch in Betracht gezogen werden?</t>
+  </si>
+  <si>
+    <t>What are best practices for managing cisplatin‚Äëinduced nephrotoxicity and ototoxicity?</t>
+  </si>
+  <si>
+    <t>Was sind Best Practices zum Management von cisplatinbedingter Nephro‚Äë und Ototoxizit√§t?</t>
+  </si>
+  <si>
+    <t>How should clinical documentation be structured for staging and treatment justification?</t>
+  </si>
+  <si>
+    <t>Wie sollte die klinische Dokumentation f√ºr Staging und Therapiebegr√ºndung strukturiert sein?</t>
+  </si>
+  <si>
+    <t>What constitutes a robust retrieval‚Äëaugmented evidence search for tumor board questions?</t>
+  </si>
+  <si>
+    <t>Was kennzeichnet eine belastbare, retrieval‚Äëunterst√ºtzte Evidenzsuche f√ºr Tumorboard‚ÄëFragestellungen?</t>
+  </si>
+  <si>
+    <t>How can real‚Äëworld evidence complement guideline‚Äëbased decisions in rare scenarios?</t>
+  </si>
+  <si>
+    <t>Wie kann Real‚ÄëWorld‚ÄëEvidenz leitlinienbasierte Entscheidungen in seltenen Situationen erg√§nzen?</t>
+  </si>
+  <si>
+    <t>What are ethical considerations when discussing fertility, sexuality, and QoL impacts?</t>
+  </si>
+  <si>
+    <t>Welche ethischen Aspekte sind bei Gespr√§chen √ºber Fertilit√§t, Sexualit√§t und Lebensqualit√§t zu ber√ºcksichtigen?</t>
+  </si>
+  <si>
+    <t>Which red‚Äëflag symptoms after treatment warrant urgent evaluation?</t>
+  </si>
+  <si>
+    <t>Welche Warnsymptome nach der Behandlung erfordern eine dringliche Abkl√§rung?</t>
+  </si>
+  <si>
+    <t>How should multidisciplinary follow‚Äëup integrate dentistry, speech therapy, and nutrition?</t>
+  </si>
+  <si>
+    <t>Wie sollte eine multidisziplin√§re Nachsorge Zahnmedizin, Logop√§die und Ern√§hrung integrieren?</t>
+  </si>
+  <si>
+    <t>What patient education topics improve adherence and self‚Äëmanagement?</t>
+  </si>
+  <si>
+    <t>Welche Patientenschulungen verbessern Adh√§renz und Selbstmanagement?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,49 +921,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -533,24 +1151,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="121.25"/>
-    <col customWidth="1" min="2" max="2" width="111.5"/>
+    <col min="1" max="1" width="121.1640625" customWidth="1"/>
+    <col min="2" max="2" width="111.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -566,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -574,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -582,7 +1205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -590,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -598,7 +1221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -606,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -614,7 +1237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -622,7 +1245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -630,7 +1253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -638,7 +1261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -646,7 +1269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -654,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -662,7 +1285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -670,7 +1293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -678,7 +1301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -686,7 +1309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -694,7 +1317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -702,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -710,7 +1333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -718,7 +1341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -726,7 +1349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -734,7 +1357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -742,7 +1365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -750,7 +1373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -758,7 +1381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -766,7 +1389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -774,32 +1397,830 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D29" s="3" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="82.38"/>
-    <col customWidth="1" min="2" max="2" width="101.38"/>
+    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+    <col min="2" max="2" width="101.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -815,7 +2236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -823,7 +2244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -831,7 +2252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -839,7 +2260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -847,7 +2268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -855,7 +2276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -863,7 +2284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
@@ -871,7 +2292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -879,7 +2300,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -887,7 +2308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -895,7 +2316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
@@ -903,7 +2324,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
@@ -912,6 +2333,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>